--- a/data/09-12-2025-lookup_types-all.xlsx
+++ b/data/09-12-2025-lookup_types-all.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="609">
   <si>
     <t>Id</t>
   </si>
@@ -1842,6 +1842,12 @@
   </si>
   <si>
     <t>LMG</t>
+  </si>
+  <si>
+    <t>b6c99dea-4e2e-498f-be38-7108a14d780c</t>
+  </si>
+  <si>
+    <t>NMS</t>
   </si>
 </sst>
 </file>
@@ -1936,13 +1942,13 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2284,7 +2290,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K158"/>
+  <dimension ref="A1:K159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7755,36 +7761,69 @@
       </c>
     </row>
     <row r="158" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="7" t="s">
+      <c r="A158" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="B158" s="8" t="s">
+      <c r="B158" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C158" s="8" t="s">
+      <c r="C158" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="D158" s="8" t="s">
+      <c r="D158" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="E158" s="8"/>
-      <c r="F158" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G158" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H158" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I158" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J158" s="9">
+      <c r="E158" s="2"/>
+      <c r="F158" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J158" s="3">
         <v>46000.28828679398</v>
       </c>
-      <c r="K158" s="9">
+      <c r="K158" s="3">
         <v>46000.28828679398</v>
+      </c>
+    </row>
+    <row r="159" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="E159" s="8"/>
+      <c r="F159" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G159" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H159" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I159" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J159" s="9">
+        <v>46000.34147103009</v>
+      </c>
+      <c r="K159" s="9">
+        <v>46000.34147103009</v>
       </c>
     </row>
   </sheetData>
